--- a/data.xlsx
+++ b/data.xlsx
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="mbed Team" sheetId="10" state="hidden" r:id="rId3"/>
-    <sheet name="Partners" sheetId="11" state="hidden" r:id="rId4"/>
-    <sheet name="Community" sheetId="12" state="hidden" r:id="rId5"/>
+    <sheet name="mbed Team" sheetId="10" r:id="rId3"/>
+    <sheet name="Partners" sheetId="11" r:id="rId4"/>
+    <sheet name="Community" sheetId="12" r:id="rId5"/>
     <sheet name="K64F Charts" sheetId="3" state="hidden" r:id="rId6"/>
     <sheet name="LPC1768 Charts" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
@@ -3165,19 +3165,19 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF8A6EAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17537,7 +17537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36109,12 +36109,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J531">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G531">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$H2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36130,10 +36130,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36862,7 +36862,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
